--- a/excels/leptin_and_metaflammation_and_review_or_systematic_resultados.xlsx
+++ b/excels/leptin_and_metaflammation_and_review_or_systematic_resultados.xlsx
@@ -454,7 +454,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-07-09</t>
+          <t>2025-07-11</t>
         </is>
       </c>
     </row>
@@ -490,10 +490,9 @@
         <is>
           <t xml:space="preserve">
     • Studies published in English, peer-reviewed journals
-    • About leptin and metaflammation
+    • About leptin and Alzheimer’s
     • Relevant papers available as full text
-    • Publications in English
-    • Review papers
+    • Randomized control trials 
     </t>
         </is>
       </c>
@@ -506,7 +505,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>20% of total quota selected for tranche</t>
+          <t>40% of total quota selected for tranche</t>
         </is>
       </c>
     </row>
@@ -518,7 +517,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Narrative review or systematic review</t>
+          <t>Randomized control trials</t>
         </is>
       </c>
     </row>
